--- a/classification/droptc/neo-bert/unfreeze/52680723/prediction.xlsx
+++ b/classification/droptc/neo-bert/unfreeze/52680723/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9996522665023804</v>
+        <v>0.9998766183853149</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9271212816238403</v>
+        <v>0.990218460559845</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9987146854400635</v>
+        <v>0.764676570892334</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9783031344413757</v>
+        <v>0.9757888317108154</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9987210631370544</v>
+        <v>0.9946295022964478</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9838719964027405</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8623100519180298</v>
+        <v>0.9982909560203552</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9966565370559692</v>
+        <v>0.9928247928619385</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999639987945557</v>
+        <v>0.9972459077835083</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9989984631538391</v>
+        <v>0.9804947376251221</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.997958779335022</v>
+        <v>0.9988774657249451</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.998264491558075</v>
+        <v>0.9998977184295654</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9867041110992432</v>
+        <v>0.8813110589981079</v>
       </c>
     </row>
     <row r="15">
@@ -847,14 +847,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9988664388656616</v>
+        <v>0.9819005131721497</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9977439641952515</v>
+        <v>0.95982825756073</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9966565370559692</v>
+        <v>0.9983408451080322</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.991787850856781</v>
+        <v>0.9963846206665039</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998284578323364</v>
+        <v>0.9757888317108154</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.8348340392112732</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999747276306152</v>
+        <v>0.9993236064910889</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8866507411003113</v>
+        <v>0.9988583326339722</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9995651841163635</v>
+        <v>0.997735857963562</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9978604912757874</v>
+        <v>0.9992019534111023</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9991394281387329</v>
+        <v>0.9944964051246643</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9988664388656616</v>
+        <v>0.4984491467475891</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9999459981918335</v>
+        <v>0.9997653365135193</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9998668432235718</v>
+        <v>0.9969545602798462</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9998117089271545</v>
+        <v>0.8679521083831787</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8016452789306641</v>
+        <v>0.9730653762817383</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9998998641967773</v>
+        <v>0.9988797307014465</v>
       </c>
     </row>
     <row r="32">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9998568296432495</v>
+        <v>0.9986649751663208</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9999856948852539</v>
+        <v>0.8468352556228638</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9982312321662903</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.5476658344268799</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9997215867042542</v>
+        <v>0.9971062541007996</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9835020899772644</v>
+        <v>0.3436144888401031</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9991154074668884</v>
+        <v>0.9998052716255188</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9871035218238831</v>
+        <v>0.9996452331542969</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9984978437423706</v>
+        <v>0.9786702990531921</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9991815686225891</v>
+        <v>0.8924832344055176</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9987428784370422</v>
+        <v>0.9984879493713379</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9998189806938171</v>
+        <v>0.9994797110557556</v>
       </c>
     </row>
     <row r="44">
@@ -1659,14 +1659,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.94338458776474</v>
+        <v>0.9997653365135193</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9854249358177185</v>
+        <v>0.9990556836128235</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.999839186668396</v>
+        <v>0.9998226761817932</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9999244213104248</v>
+        <v>0.6278783679008484</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9998437166213989</v>
+        <v>0.9998164772987366</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.990211009979248</v>
+        <v>0.9217147827148438</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9978651404380798</v>
+        <v>0.999674916267395</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9992826581001282</v>
+        <v>0.7623835206031799</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9999399185180664</v>
+        <v>0.9968384504318237</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.6970495581626892</v>
+        <v>0.9609385132789612</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9998337030410767</v>
+        <v>0.9978432655334473</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9983127117156982</v>
+        <v>0.8766154646873474</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9994599223136902</v>
+        <v>0.9885156154632568</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9902021884918213</v>
+        <v>0.9754471182823181</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9934670329093933</v>
+        <v>0.9935358762741089</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9608821868896484</v>
+        <v>0.9974472522735596</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9988664388656616</v>
+        <v>0.9989668130874634</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9433456659317017</v>
+        <v>0.9994567036628723</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8803682923316956</v>
+        <v>0.6013333797454834</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9998032450675964</v>
+        <v>0.9801414012908936</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9998117089271545</v>
+        <v>0.9898736476898193</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9982220530509949</v>
+        <v>0.9995667338371277</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9986880421638489</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9997602105140686</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9886080026626587</v>
+        <v>0.8303163647651672</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9929821491241455</v>
+        <v>0.9992995262145996</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9999322891235352</v>
+        <v>0.9850028157234192</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9949971437454224</v>
+        <v>0.9983653426170349</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7051376700401306</v>
+        <v>0.9988908171653748</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9999237060546875</v>
+        <v>0.998643696308136</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9613185524940491</v>
+        <v>0.9987155199050903</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9998800754547119</v>
+        <v>0.9933444261550903</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9998406171798706</v>
+        <v>0.9948036074638367</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.999742329120636</v>
+        <v>0.995703399181366</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9999420642852783</v>
+        <v>0.9900078773498535</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9997956156730652</v>
+        <v>0.9979060888290405</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9998284578323364</v>
+        <v>0.9986649751663208</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9996044039726257</v>
+        <v>0.9979060888290405</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.365069180727005</v>
+        <v>0.9986649751663208</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9992826581001282</v>
+        <v>0.9952493906021118</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.981438934803009</v>
+        <v>0.9983293414115906</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9964543581008911</v>
+        <v>0.9852206707000732</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9992719292640686</v>
+        <v>0.9838836789131165</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9164227843284607</v>
+        <v>0.9997027516365051</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9964052438735962</v>
+        <v>0.9880532026290894</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9990859031677246</v>
+        <v>0.9997653365135193</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9978735446929932</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9994877576828003</v>
+        <v>0.9921466708183289</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8734800219535828</v>
+        <v>0.9984886646270752</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.995267927646637</v>
+        <v>0.6444666981697083</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9999103546142578</v>
+        <v>0.9930614829063416</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9979019165039062</v>
+        <v>0.9881076216697693</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9769895076751709</v>
+        <v>0.5368289947509766</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.999424934387207</v>
+        <v>0.9997653365135193</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9998998641967773</v>
+        <v>0.9941931366920471</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9995809197425842</v>
+        <v>0.9928247928619385</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9994891881942749</v>
+        <v>0.9629260301589966</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9667160511016846</v>
+        <v>0.9921466708183289</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9962418079376221</v>
+        <v>0.9992440938949585</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.7484186291694641</v>
+        <v>0.9999188184738159</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9997053742408752</v>
+        <v>0.9964757561683655</v>
       </c>
     </row>
     <row r="105">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9972656965255737</v>
+        <v>0.9807257056236267</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9946358799934387</v>
+        <v>0.9953703284263611</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9979436993598938</v>
+        <v>0.9998326301574707</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9979774355888367</v>
+        <v>0.9995447993278503</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.990211009979248</v>
+        <v>0.5475562810897827</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8441572785377502</v>
+        <v>0.9997357726097107</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9989318251609802</v>
+        <v>0.9997400641441345</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9987112283706665</v>
+        <v>0.9977770447731018</v>
       </c>
     </row>
     <row r="113">
@@ -3591,14 +3591,14 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.7263641357421875</v>
+        <v>0.9852206707000732</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.993446409702301</v>
+        <v>0.9997653365135193</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9997653365135193</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9998930692672729</v>
+        <v>0.9992794394493103</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9984679818153381</v>
+        <v>0.9852206707000732</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.997928261756897</v>
+        <v>0.9978784322738647</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9947073459625244</v>
+        <v>0.9991356730461121</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9919496774673462</v>
+        <v>0.9997653365135193</v>
       </c>
     </row>
     <row r="121">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9999169111251831</v>
+        <v>0.4113118350505829</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9817805886268616</v>
+        <v>0.9986132383346558</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9955788254737854</v>
+        <v>0.9967319965362549</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9998288154602051</v>
+        <v>0.9986274242401123</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9854795336723328</v>
+        <v>0.9963667392730713</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9659229516983032</v>
+        <v>0.9967504739761353</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9990859031677246</v>
+        <v>0.9989525079727173</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9995686411857605</v>
+        <v>0.9737087488174438</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9962093830108643</v>
+        <v>0.9872131943702698</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9151076674461365</v>
+        <v>0.9972264170646667</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9942479133605957</v>
+        <v>0.9986010193824768</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9998181462287903</v>
+        <v>0.9979060888290405</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9996953010559082</v>
+        <v>0.9940574169158936</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9993066787719727</v>
+        <v>0.9995148181915283</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E135" t="b">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9999743700027466</v>
+        <v>0.9460278749465942</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9942479133605957</v>
+        <v>0.9989554882049561</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9181956648826599</v>
+        <v>0.9898669719696045</v>
       </c>
     </row>
     <row r="138">
@@ -4291,14 +4291,14 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7616707682609558</v>
+        <v>0.8922743797302246</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9998902082443237</v>
+        <v>0.9996142387390137</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9975969195365906</v>
+        <v>0.9832379817962646</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9999164342880249</v>
+        <v>0.8744505047798157</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9970490336418152</v>
+        <v>0.7098962068557739</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6852693557739258</v>
+        <v>0.9998328685760498</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9999889135360718</v>
+        <v>0.808489978313446</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9947705864906311</v>
+        <v>0.9946070313453674</v>
       </c>
     </row>
     <row r="146">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9016216993331909</v>
+        <v>0.995370090007782</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9982220530509949</v>
+        <v>0.9667452573776245</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.468117356300354</v>
+        <v>0.9992019534111023</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.931140124797821</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9973075389862061</v>
+        <v>0.9995476603507996</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.99702388048172</v>
+        <v>0.9995957016944885</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9995935559272766</v>
+        <v>0.9928247928619385</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9997546076774597</v>
+        <v>0.996235191822052</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8608585000038147</v>
+        <v>0.9995588660240173</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.7389373779296875</v>
+        <v>0.8565093278884888</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.5537098050117493</v>
+        <v>0.9998495578765869</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.999771773815155</v>
+        <v>0.9993699193000793</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9990679621696472</v>
+        <v>0.999025821685791</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9993476271629333</v>
+        <v>0.9172490835189819</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9994476437568665</v>
+        <v>0.9886432290077209</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9977141618728638</v>
+        <v>0.9946070313453674</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9999444484710693</v>
+        <v>0.9985172152519226</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.997980535030365</v>
+        <v>0.9984545707702637</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9998471736907959</v>
+        <v>0.990019679069519</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9979547262191772</v>
+        <v>0.9963780045509338</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9968202114105225</v>
+        <v>0.999754011631012</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.999861478805542</v>
+        <v>0.9989019632339478</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9986975193023682</v>
+        <v>0.9979214072227478</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9997230172157288</v>
+        <v>0.9963667392730713</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9977439641952515</v>
+        <v>0.9279782772064209</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9810361862182617</v>
+        <v>0.9993890523910522</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9999713897705078</v>
+        <v>0.9979368448257446</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.6137410402297974</v>
+        <v>0.9364914298057556</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9988037347793579</v>
+        <v>0.9987612962722778</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9949170351028442</v>
+        <v>0.9995173215866089</v>
       </c>
     </row>
     <row r="176">
@@ -5355,14 +5355,14 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9015069603919983</v>
+        <v>0.5559957027435303</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9685162901878357</v>
+        <v>0.9998658895492554</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9998284578323364</v>
+        <v>0.9609385132789612</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9994334578514099</v>
+        <v>0.9978961944580078</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9991377592086792</v>
+        <v>0.9988288283348083</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9855432510375977</v>
+        <v>0.9991894364356995</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9970995187759399</v>
+        <v>0.9989019632339478</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9972635507583618</v>
+        <v>0.9980556964874268</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9987112283706665</v>
+        <v>0.9986143112182617</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9999597072601318</v>
+        <v>0.9991775155067444</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9034813046455383</v>
+        <v>0.9633510112762451</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9966365098953247</v>
+        <v>0.9998565912246704</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9984063506126404</v>
+        <v>0.983353853225708</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9987112283706665</v>
+        <v>0.9120887517929077</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9985387325286865</v>
+        <v>0.7788039445877075</v>
       </c>
     </row>
     <row r="191">
@@ -5775,14 +5775,14 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9992690682411194</v>
+        <v>0.9160765409469604</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9962908029556274</v>
+        <v>0.9988441467285156</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.990448534488678</v>
+        <v>0.9986880421638489</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9990859031677246</v>
+        <v>0.9888443350791931</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.8784424662590027</v>
+        <v>0.9947183728218079</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E196" t="b">
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9999458789825439</v>
+        <v>0.9974472522735596</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9992678761482239</v>
+        <v>0.9209930300712585</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9999281167984009</v>
+        <v>0.964766263961792</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9146106839179993</v>
+        <v>0.9968087077140808</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9998410940170288</v>
+        <v>0.9284167289733887</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.998324453830719</v>
+        <v>0.9991307854652405</v>
       </c>
     </row>
     <row r="202">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="E202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9997419714927673</v>
+        <v>0.9194765686988831</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8850609660148621</v>
+        <v>0.9983806610107422</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9986975193023682</v>
+        <v>0.998690664768219</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9981550574302673</v>
+        <v>0.9997653365135193</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9992048144340515</v>
+        <v>0.9876304268836975</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4708924889564514</v>
+        <v>0.9258784651756287</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9998782873153687</v>
+        <v>0.9997653365135193</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9998668432235718</v>
+        <v>0.5842045545578003</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.8443999886512756</v>
+        <v>0.931458055973053</v>
       </c>
     </row>
   </sheetData>
